--- a/resources/接口/接口.xlsx
+++ b/resources/接口/接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programs\web\bpm_demo\resources\接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1231BF82-464E-45D7-B7F1-30F27CD551C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD2B029-CE31-4771-9E1D-36F9613FC8CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,10 +461,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BMS的所有信息都做转发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>逆功率表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -587,40 +583,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>07</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>电池内阻</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -848,6 +810,31 @@
   </si>
   <si>
     <t>PCS今日放电总量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BMS的所有信息都做转发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？原型为显示电池电压</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1156,12 +1143,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1169,6 +1150,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,16 +1182,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,7 +1492,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1517,19 +1504,19 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>159</v>
+      <c r="C3" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1526,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1547,43 +1534,43 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1580,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1603,119 +1590,119 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>160</v>
+      <c r="C11" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>161</v>
+      <c r="C12" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>132</v>
+      <c r="C13" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>166</v>
+      <c r="C14" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>165</v>
+      <c r="C15" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>162</v>
+      <c r="C16" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>167</v>
+      <c r="C17" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>164</v>
+      <c r="C18" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="15" t="s">
@@ -1723,7 +1710,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -1733,115 +1720,115 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="36"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="36"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="36"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="36"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>176</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="36"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>170</v>
+        <v>184</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>171</v>
+        <v>185</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="36"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="36"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="36"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="11" t="s">
         <v>30</v>
       </c>
@@ -1851,79 +1838,79 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="36"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="36"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="36"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="36"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="36"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="36"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="8" t="s">
         <v>31</v>
       </c>
@@ -1933,129 +1920,129 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="36"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="36"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>179</v>
+      <c r="C41" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="36"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>180</v>
+      <c r="C42" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="36"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>181</v>
+      <c r="C43" s="33" t="s">
+        <v>178</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="36"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>182</v>
+      <c r="C44" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="36"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>183</v>
+      <c r="C45" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="36"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="42" t="s">
-        <v>184</v>
+      <c r="C46" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="36"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>185</v>
+      <c r="C47" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="37"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>186</v>
+      <c r="C48" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2067,7 +2054,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="36"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="8" t="s">
         <v>45</v>
       </c>
@@ -2077,7 +2064,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="36"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="11" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2074,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="37"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
@@ -2097,7 +2084,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -2109,43 +2096,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="36"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="36"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="36"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="36"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="8" t="s">
         <v>53</v>
       </c>
@@ -2155,7 +2142,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="36"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2165,7 +2152,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="36"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="8" t="s">
         <v>55</v>
       </c>
@@ -2175,7 +2162,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="36"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="11" t="s">
         <v>28</v>
       </c>
@@ -2185,7 +2172,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +2182,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -2207,19 +2194,19 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="36"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>157</v>
+      <c r="C63" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="36"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="8" t="s">
         <v>59</v>
       </c>
@@ -2229,7 +2216,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="36"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="11" t="s">
         <v>60</v>
       </c>
@@ -2239,7 +2226,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="36"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="8" t="s">
         <v>61</v>
       </c>
@@ -2249,7 +2236,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="36"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
@@ -2259,19 +2246,19 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="36"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="41" t="s">
-        <v>158</v>
+      <c r="C68" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="36"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="11" t="s">
         <v>64</v>
       </c>
@@ -2281,7 +2268,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="36"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="8" t="s">
         <v>65</v>
       </c>
@@ -2291,7 +2278,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="36"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="11" t="s">
         <v>66</v>
       </c>
@@ -2301,7 +2288,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="36"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="8" t="s">
         <v>67</v>
       </c>
@@ -2311,7 +2298,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="37"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="11" t="s">
         <v>68</v>
       </c>
@@ -2321,87 +2308,87 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>148</v>
+      <c r="C74" s="34" t="s">
+        <v>145</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="36"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="31" t="s">
+      <c r="A75" s="38"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="38"/>
+      <c r="B76" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="36"/>
-      <c r="B76" s="34" t="s">
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="38"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="36"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="30" t="s">
-        <v>150</v>
-      </c>
       <c r="D77" s="17"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="36"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="29" t="s">
-        <v>151</v>
+      <c r="C78" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="36"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="29" t="s">
-        <v>153</v>
+      <c r="A79" s="38"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="36"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="29" t="s">
-        <v>146</v>
+      <c r="C80" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="36"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="28" t="s">
-        <v>145</v>
+      <c r="C81" s="34" t="s">
+        <v>196</v>
       </c>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="36"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="8" t="s">
         <v>75</v>
       </c>
@@ -2409,7 +2396,7 @@
       <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="36"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="21" t="s">
         <v>76</v>
       </c>
@@ -2418,33 +2405,33 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
+        <v>128</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/resources/接口/接口.xlsx
+++ b/resources/接口/接口.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programs\web\bpm_demo\resources\接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD2B029-CE31-4771-9E1D-36F9613FC8CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFEFF9A-FFC6-4789-BE77-998C0CF9EF80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,14 +810,6 @@
   </si>
   <si>
     <t>PCS今日放电总量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -835,6 +827,14 @@
       </rPr>
       <t>？原型为显示电池电压</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>119/153</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>107/141</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1164,6 +1164,12 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,12 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1504,7 +1504,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="38"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1628,7 +1628,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="11" t="s">
         <v>169</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="8" t="s">
         <v>170</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="8" t="s">
         <v>171</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="38"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="11" t="s">
         <v>173</v>
       </c>
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="8" t="s">
         <v>172</v>
       </c>
@@ -1756,7 +1756,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="11" t="s">
         <v>174</v>
       </c>
@@ -1768,7 +1768,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>184</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="38"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="14" t="s">
         <v>185</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="38"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="15" t="s">
         <v>186</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="14" t="s">
         <v>187</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="38"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="15" t="s">
         <v>188</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="38"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="11" t="s">
         <v>30</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="38"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="15" t="s">
         <v>189</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="14" t="s">
         <v>190</v>
       </c>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="15" t="s">
         <v>191</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="14" t="s">
         <v>192</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="38"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>193</v>
       </c>
@@ -1898,7 +1898,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="38"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="14" t="s">
         <v>194</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="8" t="s">
         <v>31</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="38"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="11" t="s">
         <v>34</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="38"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="8" t="s">
         <v>35</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="38"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="11" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +1970,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="38"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="8" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="38"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="11" t="s">
         <v>38</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="38"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="8" t="s">
         <v>39</v>
       </c>
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="38"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="11" t="s">
         <v>40</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="38"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="11" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2054,7 +2054,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="38"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="8" t="s">
         <v>45</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="38"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="11" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="38"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="11" t="s">
         <v>50</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="38"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="8" t="s">
         <v>51</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="38"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="11" t="s">
         <v>52</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="38"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="8" t="s">
         <v>53</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="38"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="11" t="s">
         <v>54</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="38"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="8" t="s">
         <v>55</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="38"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="11" t="s">
         <v>28</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="39"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="38"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="11" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="38"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="8" t="s">
         <v>59</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="38"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="11" t="s">
         <v>60</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="38"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="8" t="s">
         <v>61</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="38"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="38"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="8" t="s">
         <v>63</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="38"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="11" t="s">
         <v>64</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="38"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="8" t="s">
         <v>65</v>
       </c>
@@ -2278,7 +2278,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="38"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="11" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="38"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="8" t="s">
         <v>67</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="11" t="s">
         <v>68</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="39" t="s">
         <v>69</v>
       </c>
       <c r="B74" s="21" t="s">
@@ -2318,37 +2318,37 @@
         <v>145</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="38"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="30"/>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="37" t="s">
         <v>146</v>
       </c>
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="38"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="38" t="s">
         <v>149</v>
       </c>
       <c r="D76" s="17"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="38"/>
+      <c r="A77" s="40"/>
       <c r="B77" s="31"/>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="38" t="s">
         <v>147</v>
       </c>
       <c r="D77" s="17"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="38"/>
+      <c r="A78" s="40"/>
       <c r="B78" s="21" t="s">
         <v>71</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="38"/>
+      <c r="A79" s="40"/>
       <c r="B79" s="30"/>
       <c r="C79" s="33" t="s">
         <v>150</v>
@@ -2366,29 +2366,29 @@
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="38"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="33" t="s">
-        <v>195</v>
+      <c r="C80" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="38"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="34" t="s">
-        <v>196</v>
+      <c r="C81" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="38"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="8" t="s">
         <v>75</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="38"/>
+      <c r="A83" s="40"/>
       <c r="B83" s="21" t="s">
         <v>76</v>
       </c>
@@ -2417,21 +2417,21 @@
       <c r="A86" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
